--- a/olio-kartta.xlsx
+++ b/olio-kartta.xlsx
@@ -24,73 +24,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Pelintekijä-olio</t>
+    <t>Olio / luokkakaavio</t>
   </si>
   <si>
-    <t>Ohjain</t>
+    <t>Mato</t>
   </si>
   <si>
-    <t>luo mallit</t>
-  </si>
-  <si>
-    <t>luo näkymän</t>
-  </si>
-  <si>
-    <t>luo ohjaimen</t>
-  </si>
-  <si>
-    <t>rekisteröi ohjaimen</t>
-  </si>
-  <si>
-    <t>Näppäinkuuntelija-olio</t>
-  </si>
-  <si>
-    <t>MadonKatkaisu-olio</t>
-  </si>
-  <si>
-    <t>Pistelaskuri-olio</t>
-  </si>
-  <si>
-    <t>EnnätysTallennis-olio</t>
-  </si>
-  <si>
-    <t>Vaikeusaste-olio</t>
-  </si>
-  <si>
-    <t>Tuhoaja-olio</t>
-  </si>
-  <si>
-    <t>Tekijät-olio</t>
-  </si>
-  <si>
-    <t>EnnätysNäyttö-olio</t>
-  </si>
-  <si>
-    <t>PaluuNappi-olio</t>
-  </si>
-  <si>
-    <t>Ääni-olio</t>
-  </si>
-  <si>
-    <t>Ulkoasu-olio</t>
-  </si>
-  <si>
-    <t>Näppäinkomennot-olio</t>
-  </si>
-  <si>
-    <t>PoweritOnOff-olio</t>
-  </si>
-  <si>
-    <t>HelpNäyttö-olio</t>
+    <t>Pekka Melgin, Aleksi Olkkonen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +55,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -123,89 +94,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,16 +127,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -245,7 +145,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8820150" y="5629274"/>
+          <a:off x="9505950" y="6305549"/>
           <a:ext cx="1657350" cy="819151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -296,16 +196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -314,7 +214,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8743950" y="4152899"/>
+          <a:off x="9534525" y="4705349"/>
           <a:ext cx="1657350" cy="819151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -367,16 +267,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -387,9 +287,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9572625" y="4972050"/>
-          <a:ext cx="76200" cy="657224"/>
+        <a:xfrm flipH="1">
+          <a:off x="10334625" y="5524500"/>
+          <a:ext cx="28575" cy="781049"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -420,15 +320,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -484,15 +384,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -553,15 +453,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -622,16 +522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -640,7 +540,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10429875" y="2419350"/>
+          <a:off x="10382250" y="2447925"/>
           <a:ext cx="1657350" cy="809626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -690,15 +590,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -743,15 +643,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -796,16 +696,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -818,7 +718,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8267700" y="1943101"/>
-          <a:ext cx="2990850" cy="476249"/>
+          <a:ext cx="2943225" cy="504824"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -849,16 +749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -871,7 +771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8267700" y="3276601"/>
-          <a:ext cx="1304925" cy="876298"/>
+          <a:ext cx="2095500" cy="1428748"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -902,15 +802,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -966,15 +866,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1019,15 +919,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1083,15 +983,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1136,15 +1036,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1200,15 +1100,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1253,15 +1153,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1306,15 +1206,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1375,15 +1275,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1439,15 +1339,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1492,15 +1392,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1545,16 +1445,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1563,7 +1463,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11782425" y="1524000"/>
+          <a:off x="11887200" y="1133475"/>
           <a:ext cx="1657350" cy="809626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1610,16 +1510,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1632,7 +1532,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9096375" y="1538288"/>
-          <a:ext cx="2686050" cy="390525"/>
+          <a:ext cx="2790825" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1663,15 +1563,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1756,15 +1656,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1809,15 +1709,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1878,15 +1778,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1942,15 +1842,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2018,15 +1918,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2071,15 +1971,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2124,16 +2024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2142,8 +2042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3981450" y="161924"/>
-          <a:ext cx="1657350" cy="981075"/>
+          <a:off x="2590800" y="95249"/>
+          <a:ext cx="1657350" cy="1495426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,12 +2078,19 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="fi-FI" sz="1100" b="1"/>
+            <a:t>Ääni, Näppäinkomennot, Ulkoasu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="fi-FI" sz="1100"/>
             <a:t>sisältää ominaisuudet jotka</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t> vaikuttavat pelin kulkuun, powerupit muokkaavat näitä</a:t>
+            <a:t> vaikuttavat pelin kulkuun, powerupit muokkaavat näitä, vaikeusasteet, powerupit</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2192,15 +2099,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2244,16 +2151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2264,7 +2171,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10582275" y="3228976"/>
+          <a:off x="10534650" y="3257551"/>
           <a:ext cx="676275" cy="609599"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2297,15 +2204,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2345,6 +2252,393 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="1733550"/>
+          <a:ext cx="1657350" cy="809626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" b="1"/>
+            <a:t>Tekijät-olio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>näyttää tekijät eeppisillä efekteillä</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="95250"/>
+          <a:ext cx="1657350" cy="809626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" b="1"/>
+            <a:t>HelpNäyttö-olio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>näyttää apua eeppisillä efekteillä</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="1076325"/>
+          <a:ext cx="1657350" cy="809626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" b="1"/>
+            <a:t>Tuhoaja-olio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>poistaa pelin olevaisuudesta</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="4695824"/>
+          <a:ext cx="1657350" cy="819151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" b="1"/>
+            <a:t>Näppäinkuuntelija-olio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>tekee madon liikkeen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>hoitaa törmäykset ym.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9201150" y="5105400"/>
+          <a:ext cx="333375" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1185582</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105894</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>154082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6385111" y="106456"/>
+          <a:ext cx="1654548" cy="809626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" b="1"/>
+            <a:t>Pelintekijä-olio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>luo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> mallit, näkymä, ja ohjaimen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2613,141 +2907,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="29" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="27" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="O5" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="O6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="O7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>12</v>
-      </c>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="O8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>13</v>
-      </c>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="O9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>14</v>
-      </c>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="O10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>15</v>
-      </c>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="O11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>19</v>
-      </c>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="O12" t="s">
-        <v>16</v>
-      </c>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="O15" s="7"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="O16" s="7"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O17" s="7"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
